--- a/biology/Zoologie/Coryphaena/Coryphaena.xlsx
+++ b/biology/Zoologie/Coryphaena/Coryphaena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les coryphènes, dorades coryphènes ou dorades tropicales[3] (Coryphaena) forment le seul genre de poissons de la famille des Coryphaenidae. Ils sont aussi connus sous les noms hawaiien de mahi-mahi (« fort-fort »)[4], ou encore de « poisson-dauphin » ou de « dorade-dauphin » par traduction du nom vernaculaire anglais dolphin-fish ou dolphin dorado[5]. Les coryphènes sont connus pour l'extrême rapidité de leur nage : leur méthode de chasse des poissons volants consiste à les faire s'envoler puis à anticiper leur trajectoire pour les "gober" au moment de leur amerrissage. Ces poissons sont réputés pour leur chair.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les coryphènes, dorades coryphènes ou dorades tropicales (Coryphaena) forment le seul genre de poissons de la famille des Coryphaenidae. Ils sont aussi connus sous les noms hawaiien de mahi-mahi (« fort-fort »), ou encore de « poisson-dauphin » ou de « dorade-dauphin » par traduction du nom vernaculaire anglais dolphin-fish ou dolphin dorado. Les coryphènes sont connus pour l'extrême rapidité de leur nage : leur méthode de chasse des poissons volants consiste à les faire s'envoler puis à anticiper leur trajectoire pour les "gober" au moment de leur amerrissage. Ces poissons sont réputés pour leur chair.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (24 avril 2022)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (24 avril 2022) :
 Coryphaena equiselis Linnaeus, 1758
 Coryphaena hippurus Linnaeus, 1758</t>
         </is>
